--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Desktop\Informatyka\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Piotrek\Desktop\Informatyka\MaturaZadania\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Zadania</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>wszystkie</t>
+  </si>
+  <si>
+    <t>Problem z importem</t>
   </si>
 </sst>
 </file>
@@ -201,7 +204,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{01A7F9A6-67CD-442E-8B0B-7B409BD56429}" diskRevisions="1" revisionId="11" version="4">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7EA9DBBA-EEC4-4417-B10F-50AA89112EF2}" diskRevisions="1" revisionId="13" version="6">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -218,6 +221,16 @@
     </sheetIdMap>
   </header>
   <header guid="{01A7F9A6-67CD-442E-8B0B-7B409BD56429}" dateTime="2017-02-10T20:07:05" maxSheetId="2" userName="Piotrek K" r:id="rId4" minRId="8" maxRId="11">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B3887188-DB7A-4E30-A350-5A072147D58C}" dateTime="2017-02-20T21:41:58" maxSheetId="2" userName="Piotrek K" r:id="rId5" minRId="12">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7EA9DBBA-EEC4-4417-B10F-50AA89112EF2}" dateTime="2017-02-20T22:02:57" maxSheetId="2" userName="Piotrek K" r:id="rId6" minRId="13">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -298,6 +311,28 @@
     </oc>
     <nc r="H16">
       <f>112-58</f>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog5.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="12" sId="1" numFmtId="19">
+    <nc r="D47">
+      <v>42786</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog6.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="13" sId="1">
+    <nc r="E48" t="inlineStr">
+      <is>
+        <t>Problem z importem</t>
+      </is>
     </nc>
   </rcc>
 </revisions>
@@ -596,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,14 +665,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.27777777777777779</v>
+        <v>0.29629629629629628</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.43820224719101125</v>
+        <v>0.48101265822784811</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -774,7 +809,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -792,7 +827,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -836,7 +871,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1185,7 +1220,9 @@
       <c r="C47" s="3">
         <v>42769</v>
       </c>
-      <c r="D47" s="3"/>
+      <c r="D47" s="3">
+        <v>42786</v>
+      </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.25">
@@ -1196,7 +1233,9 @@
         <v>42770</v>
       </c>
       <c r="D48" s="3"/>
-      <c r="E48" s="2"/>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B49" s="2">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7EA9DBBA-EEC4-4417-B10F-50AA89112EF2}" diskRevisions="1" revisionId="13" version="6">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{15A2D96C-F774-4500-8F3B-80EE6390CEB7}" diskRevisions="1" revisionId="14" version="7">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -231,6 +231,11 @@
     </sheetIdMap>
   </header>
   <header guid="{7EA9DBBA-EEC4-4417-B10F-50AA89112EF2}" dateTime="2017-02-20T22:02:57" maxSheetId="2" userName="Piotrek K" r:id="rId6" minRId="13">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{15A2D96C-F774-4500-8F3B-80EE6390CEB7}" dateTime="2017-02-21T18:50:36" maxSheetId="2" userName="Piotrek K" r:id="rId7" minRId="14">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -333,6 +338,16 @@
       <is>
         <t>Problem z importem</t>
       </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog7.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="14" sId="1" numFmtId="19">
+    <nc r="D9">
+      <v>42787</v>
     </nc>
   </rcc>
 </revisions>
@@ -631,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,14 +680,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.29629629629629628</v>
+        <v>0.31481481481481483</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.48101265822784811</v>
+        <v>0.47435897435897434</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -775,7 +790,9 @@
       <c r="C9" s="3">
         <v>42731</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>42787</v>
+      </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
@@ -809,7 +826,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -827,7 +844,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>60</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -871,7 +888,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{15A2D96C-F774-4500-8F3B-80EE6390CEB7}" diskRevisions="1" revisionId="14" version="7">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7D5CD251-8E6A-44E3-BD74-E876EE88B8B7}" diskRevisions="1" revisionId="15" version="8">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -236,6 +236,11 @@
     </sheetIdMap>
   </header>
   <header guid="{15A2D96C-F774-4500-8F3B-80EE6390CEB7}" dateTime="2017-02-21T18:50:36" maxSheetId="2" userName="Piotrek K" r:id="rId7" minRId="14">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7D5CD251-8E6A-44E3-BD74-E876EE88B8B7}" dateTime="2017-02-22T18:21:37" maxSheetId="2" userName="Piotrek K" r:id="rId8" minRId="15">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -353,8 +358,20 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="15" sId="1" numFmtId="19">
+    <nc r="D10">
+      <v>42788</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{7D5CD251-8E6A-44E3-BD74-E876EE88B8B7}" name="Piotrek K" id="-536871584" dateTime="2017-02-22T17:17:24"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,7 +664,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,14 +697,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.31481481481481483</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.47435897435897434</v>
+        <v>0.46753246753246752</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -802,7 +819,9 @@
       <c r="C10" s="3">
         <v>42732</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>42788</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="G10" t="s">
         <v>4</v>
@@ -826,7 +845,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -844,7 +863,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -888,7 +907,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7D5CD251-8E6A-44E3-BD74-E876EE88B8B7}" diskRevisions="1" revisionId="15" version="8">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE3F7BB1-32F7-4EF1-9D88-62FECF157D43}" diskRevisions="1" revisionId="16" version="9">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -245,6 +245,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{AE3F7BB1-32F7-4EF1-9D88-62FECF157D43}" dateTime="2017-02-22T19:05:56" maxSheetId="2" userName="Piotrek K" r:id="rId9" minRId="16">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -368,10 +373,18 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="16" sId="1" numFmtId="19">
+    <nc r="D11">
+      <v>42788</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{7D5CD251-8E6A-44E3-BD74-E876EE88B8B7}" name="Piotrek K" id="-536871584" dateTime="2017-02-22T17:17:24"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -664,7 +677,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,14 +710,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.33333333333333331</v>
+        <v>0.35185185185185186</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.46753246753246752</v>
+        <v>0.45454545454545453</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -838,7 +851,9 @@
       <c r="C11" s="3">
         <v>42733</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>42788</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="G11" t="s">
         <v>5</v>
@@ -863,7 +878,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -907,7 +922,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -204,7 +204,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{AE3F7BB1-32F7-4EF1-9D88-62FECF157D43}" diskRevisions="1" revisionId="16" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D169446A-3D99-4D24-8BC4-8F5B3495015F}" diskRevisions="1" revisionId="17" version="10">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -250,11 +250,26 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{D169446A-3D99-4D24-8BC4-8F5B3495015F}" dateTime="2017-02-23T15:46:08" maxSheetId="2" userName="Piotrek K" r:id="rId10" minRId="17">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="17" sId="1" numFmtId="19">
+    <nc r="D12">
+      <v>42789</v>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,7 +399,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{D169446A-3D99-4D24-8BC4-8F5B3495015F}" name="Piotrek K" id="-536874467" dateTime="2017-02-23T14:49:51"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -677,7 +694,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,14 +727,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.35185185185185186</v>
+        <v>0.37037037037037035</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.45454545454545453</v>
+        <v>0.44736842105263158</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -860,7 +877,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -871,14 +888,16 @@
       <c r="C12" s="3">
         <v>42734</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>42789</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="G12" t="s">
         <v>9</v>
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -922,7 +941,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Zadania</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Problem z importem</t>
+  </si>
+  <si>
+    <t>W podpunkcie pierwszym wynik jest o 1 za duży</t>
   </si>
 </sst>
 </file>
@@ -204,7 +207,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{D169446A-3D99-4D24-8BC4-8F5B3495015F}" diskRevisions="1" revisionId="17" version="10">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B81CC9E0-4426-40BF-A4DF-5650AAE03B8B}" diskRevisions="1" revisionId="19" version="11">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -255,6 +258,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{B81CC9E0-4426-40BF-A4DF-5650AAE03B8B}" dateTime="2017-02-23T17:50:06" maxSheetId="2" userName="Piotrek K" r:id="rId11" minRId="18" maxRId="19">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -267,6 +275,23 @@
   <rcc rId="17" sId="1" numFmtId="19">
     <nc r="D12">
       <v>42789</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="18" sId="1" numFmtId="19">
+    <nc r="D13">
+      <v>42789</v>
+    </nc>
+  </rcc>
+  <rcc rId="19" sId="1">
+    <nc r="E13" t="inlineStr">
+      <is>
+        <t>W podpunkcie pierwszym wynik jest o 1 za duży</t>
+      </is>
     </nc>
   </rcc>
 </revisions>
@@ -399,9 +424,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{D169446A-3D99-4D24-8BC4-8F5B3495015F}" name="Piotrek K" id="-536874467" dateTime="2017-02-23T14:49:51"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -694,7 +717,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,14 +750,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.37037037037037035</v>
+        <v>0.3888888888888889</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.44736842105263158</v>
+        <v>0.43421052631578949</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -897,7 +920,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>61</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -907,8 +930,12 @@
       <c r="C13" s="3">
         <v>42735</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="2"/>
+      <c r="D13" s="3">
+        <v>42789</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
@@ -941,7 +968,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B81CC9E0-4426-40BF-A4DF-5650AAE03B8B}" diskRevisions="1" revisionId="19" version="11">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FF5955C1-CE90-4090-BB2C-FAD0345B8DC2}" diskRevisions="1" revisionId="20" version="12">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -263,6 +263,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{FF5955C1-CE90-4090-BB2C-FAD0345B8DC2}" dateTime="2017-02-24T22:52:23" maxSheetId="2" userName="Piotrek K" r:id="rId12" minRId="20">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -292,6 +297,16 @@
       <is>
         <t>W podpunkcie pierwszym wynik jest o 1 za duży</t>
       </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog12.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="20" sId="1" numFmtId="19">
+    <nc r="D14">
+      <v>42790</v>
     </nc>
   </rcc>
 </revisions>
@@ -717,7 +732,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,14 +765,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.3888888888888889</v>
+        <v>0.40740740740740738</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.43421052631578949</v>
+        <v>0.42666666666666669</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -900,7 +915,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -920,7 +935,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>94</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -944,7 +959,9 @@
       <c r="C14" s="3">
         <v>42736</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>42790</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="G14" t="s">
         <v>10</v>
@@ -968,7 +985,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FF5955C1-CE90-4090-BB2C-FAD0345B8DC2}" diskRevisions="1" revisionId="20" version="12">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CE02EAF5-27E2-4FA0-8BA5-0D4E72604DC5}" diskRevisions="1" revisionId="21" version="13">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -268,6 +268,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{CE02EAF5-27E2-4FA0-8BA5-0D4E72604DC5}" dateTime="2017-02-26T20:14:10" maxSheetId="2" userName="Piotrek K" r:id="rId13" minRId="21">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -307,6 +312,16 @@
   <rcc rId="20" sId="1" numFmtId="19">
     <nc r="D14">
       <v>42790</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog13.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="21" sId="1" numFmtId="19">
+    <nc r="D15">
+      <v>42792</v>
     </nc>
   </rcc>
 </revisions>
@@ -439,7 +454,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{CE02EAF5-27E2-4FA0-8BA5-0D4E72604DC5}" name="Piotrek K" id="-536903001" dateTime="2017-02-26T18:35:12"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -732,7 +749,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -765,14 +782,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.40740740740740738</v>
+        <v>0.42592592592592593</v>
       </c>
       <c r="G1" t="s">
         <v>12</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.42666666666666669</v>
+        <v>0.42465753424657532</v>
       </c>
       <c r="I1" t="s">
         <v>13</v>
@@ -915,7 +932,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -935,7 +952,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>63</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -978,14 +995,16 @@
       <c r="C15" s="3">
         <v>42737</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>42792</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="G15" t="s">
         <v>11</v>
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Zadania</t>
   </si>
@@ -57,9 +57,6 @@
     <t>Postęp:</t>
   </si>
   <si>
-    <t>puste</t>
-  </si>
-  <si>
     <t>zrobione</t>
   </si>
   <si>
@@ -69,13 +66,19 @@
     <t>Nie do końca zrobione. 2 ostatnie zadania to przegięcie xD</t>
   </si>
   <si>
-    <t>wszystkie</t>
-  </si>
-  <si>
     <t>Problem z importem</t>
   </si>
   <si>
     <t>W podpunkcie pierwszym wynik jest o 1 za duży</t>
+  </si>
+  <si>
+    <t>Do zrobienia</t>
+  </si>
+  <si>
+    <t>Wszystkie</t>
+  </si>
+  <si>
+    <t>Zrobione</t>
   </si>
 </sst>
 </file>
@@ -207,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{CE02EAF5-27E2-4FA0-8BA5-0D4E72604DC5}" diskRevisions="1" revisionId="21" version="13">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7FF6DE5-D539-4BFD-B830-4F6F98E7C6F0}" diskRevisions="1" revisionId="26" version="15">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -273,6 +276,16 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{A3719776-7EFB-4654-AA1C-3E510FDE4D37}" dateTime="2017-02-26T20:16:26" maxSheetId="2" userName="Piotrek K" r:id="rId14" minRId="22" maxRId="25">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{B7FF6DE5-D539-4BFD-B830-4F6F98E7C6F0}" dateTime="2017-02-26T20:37:55" maxSheetId="2" userName="Piotrek K" r:id="rId15" minRId="26">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -321,6 +334,57 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="21" sId="1" numFmtId="19">
     <nc r="D15">
+      <v>42792</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog14.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="22" sId="1">
+    <nc r="H17">
+      <f>H16-H15</f>
+    </nc>
+  </rcc>
+  <rcc rId="23" sId="1">
+    <oc r="G15" t="inlineStr">
+      <is>
+        <t>puste</t>
+      </is>
+    </oc>
+    <nc r="G15" t="inlineStr">
+      <is>
+        <t>Do zrobienia</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="24" sId="1">
+    <oc r="G16" t="inlineStr">
+      <is>
+        <t>wszystkie</t>
+      </is>
+    </oc>
+    <nc r="G16" t="inlineStr">
+      <is>
+        <t>Wszystkie</t>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="25" sId="1">
+    <nc r="G17" t="inlineStr">
+      <is>
+        <t>Zrobione</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog15.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="26" sId="1" numFmtId="19">
+    <nc r="D16">
       <v>42792</v>
     </nc>
   </rcc>
@@ -453,10 +517,8 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{CE02EAF5-27E2-4FA0-8BA5-0D4E72604DC5}" name="Piotrek K" id="-536903001" dateTime="2017-02-26T18:35:12"/>
-</users>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -749,7 +811,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -782,17 +844,17 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.42592592592592593</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.42465753424657532</v>
+        <v>0.41095890410958902</v>
       </c>
       <c r="I1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -952,7 +1014,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -966,7 +1028,7 @@
         <v>42789</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.25">
@@ -1000,11 +1062,11 @@
       </c>
       <c r="E15" s="2"/>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1014,17 +1076,19 @@
       <c r="C16" s="3">
         <v>42738</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>42792</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="G16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H16">
         <f>112-58</f>
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <v>73</v>
       </c>
@@ -1033,8 +1097,15 @@
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17">
+        <f>H16-H15</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <v>74</v>
       </c>
@@ -1044,7 +1115,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="2">
         <v>75</v>
       </c>
@@ -1054,7 +1125,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="2">
         <v>76</v>
       </c>
@@ -1064,7 +1135,7 @@
       <c r="D20" s="3"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="2">
         <v>77</v>
       </c>
@@ -1074,7 +1145,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="2">
         <v>78</v>
       </c>
@@ -1084,7 +1155,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="2">
         <v>79</v>
       </c>
@@ -1094,7 +1165,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="2">
         <v>80</v>
       </c>
@@ -1104,7 +1175,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>81</v>
       </c>
@@ -1114,7 +1185,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>82</v>
       </c>
@@ -1126,7 +1197,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>83</v>
       </c>
@@ -1138,7 +1209,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <v>84</v>
       </c>
@@ -1150,7 +1221,7 @@
       </c>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <v>85</v>
       </c>
@@ -1161,10 +1232,10 @@
         <v>42776</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <v>86</v>
       </c>
@@ -1176,7 +1247,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <v>87</v>
       </c>
@@ -1186,7 +1257,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <v>88</v>
       </c>
@@ -1367,7 +1438,7 @@
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{B7FF6DE5-D539-4BFD-B830-4F6F98E7C6F0}" diskRevisions="1" revisionId="26" version="15">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{500FEA59-F601-4F51-B14E-93B2927EA53E}" diskRevisions="1" revisionId="27" version="16">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -286,6 +286,11 @@
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{500FEA59-F601-4F51-B14E-93B2927EA53E}" dateTime="2017-03-03T19:24:19" maxSheetId="2" userName="Piotrek K" r:id="rId16" minRId="27">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -391,6 +396,16 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog16.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="27" sId="1" numFmtId="19">
+    <nc r="D17">
+      <v>42797</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rm rId="1" sheetId="1" source="H14:I15" destination="G15:H16" sourceSheetId="1"/>
@@ -517,8 +532,10 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{500FEA59-F601-4F51-B14E-93B2927EA53E}" name="Piotrek K" id="-536896336" dateTime="2017-03-03T17:56:47"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,7 +828,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,14 +861,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.44444444444444442</v>
+        <v>0.46296296296296297</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.41095890410958902</v>
+        <v>0.4264705882352941</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -994,7 +1011,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1014,7 +1031,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1066,7 +1083,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1095,14 +1112,16 @@
       <c r="C17" s="3">
         <v>42739</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>42797</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="G17" t="s">
         <v>18</v>
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{500FEA59-F601-4F51-B14E-93B2927EA53E}" diskRevisions="1" revisionId="27" version="16">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F54E9DDC-987A-4ED5-BC2F-94EE177D1A57}" diskRevisions="1" revisionId="28" version="17">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -287,6 +287,11 @@
     </sheetIdMap>
   </header>
   <header guid="{500FEA59-F601-4F51-B14E-93B2927EA53E}" dateTime="2017-03-03T19:24:19" maxSheetId="2" userName="Piotrek K" r:id="rId16" minRId="27">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F54E9DDC-987A-4ED5-BC2F-94EE177D1A57}" dateTime="2017-03-03T22:29:31" maxSheetId="2" userName="Piotrek K" r:id="rId17" minRId="28">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -406,6 +411,16 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog17.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="28" sId="1" numFmtId="19">
+    <nc r="D18">
+      <v>42797</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rm rId="1" sheetId="1" source="H14:I15" destination="G15:H16" sourceSheetId="1"/>
@@ -533,9 +548,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{500FEA59-F601-4F51-B14E-93B2927EA53E}" name="Piotrek K" id="-536896336" dateTime="2017-03-03T17:56:47"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,7 +841,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -861,14 +874,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.46296296296296297</v>
+        <v>0.48148148148148145</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.4264705882352941</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1031,7 +1044,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1083,7 +1096,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1121,7 +1134,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1131,7 +1144,9 @@
       <c r="C18" s="3">
         <v>42740</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>42797</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F54E9DDC-987A-4ED5-BC2F-94EE177D1A57}" diskRevisions="1" revisionId="28" version="17">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDE9F8BD-D662-49DD-A6CB-5C15A9FDB007}" diskRevisions="1" revisionId="30" version="19">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -292,6 +292,16 @@
     </sheetIdMap>
   </header>
   <header guid="{F54E9DDC-987A-4ED5-BC2F-94EE177D1A57}" dateTime="2017-03-03T22:29:31" maxSheetId="2" userName="Piotrek K" r:id="rId17" minRId="28">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{94F2CC10-5719-4E45-BFBD-BD4B3BD34D4D}" dateTime="2017-03-04T18:58:19" maxSheetId="2" userName="Piotrek K" r:id="rId18" minRId="29">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{FDE9F8BD-D662-49DD-A6CB-5C15A9FDB007}" dateTime="2017-03-05T09:42:08" maxSheetId="2" userName="Piotrek K" r:id="rId19" minRId="30">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -416,6 +426,26 @@
   <rcc rId="28" sId="1" numFmtId="19">
     <nc r="D18">
       <v>42797</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog18.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="29" sId="1" numFmtId="19">
+    <nc r="D19">
+      <v>75669</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog19.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="30" sId="1" numFmtId="19">
+    <nc r="D20">
+      <v>42799</v>
     </nc>
   </rcc>
 </revisions>
@@ -841,7 +871,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,14 +904,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.48148148148148145</v>
+        <v>0.51851851851851849</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.41176470588235292</v>
+        <v>0.39393939393939392</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1024,7 +1054,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1044,7 +1074,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>60</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1096,7 +1126,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1134,7 +1164,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1156,7 +1186,9 @@
       <c r="C19" s="3">
         <v>42741</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>75669</v>
+      </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
@@ -1166,7 +1198,9 @@
       <c r="C20" s="3">
         <v>42742</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>42799</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{FDE9F8BD-D662-49DD-A6CB-5C15A9FDB007}" diskRevisions="1" revisionId="30" version="19">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BC31E240-7BF4-46C2-8ADD-46D018C6E7BA}" diskRevisions="1" revisionId="31" version="20">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -302,6 +302,11 @@
     </sheetIdMap>
   </header>
   <header guid="{FDE9F8BD-D662-49DD-A6CB-5C15A9FDB007}" dateTime="2017-03-05T09:42:08" maxSheetId="2" userName="Piotrek K" r:id="rId19" minRId="30">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{BC31E240-7BF4-46C2-8ADD-46D018C6E7BA}" dateTime="2017-03-09T11:01:13" maxSheetId="2" userName="Piotrek K" r:id="rId20" minRId="31">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -462,6 +467,16 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog20.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="31" sId="1" numFmtId="19">
+    <nc r="D21">
+      <v>42803</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" numFmtId="19">
@@ -578,7 +593,9 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
+  <userInfo guid="{BC31E240-7BF4-46C2-8ADD-46D018C6E7BA}" name="Piotrek K" id="-536930557" dateTime="2017-03-09T10:06:29"/>
+</users>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -871,7 +888,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,14 +921,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.51851851851851849</v>
+        <v>0.53703703703703709</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.39393939393939392</v>
+        <v>0.40322580645161288</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1054,7 +1071,7 @@
       </c>
       <c r="H11" s="5">
         <f ca="1">DATEDIF(TODAY(), H10, "d")</f>
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="I11" s="5"/>
     </row>
@@ -1074,7 +1091,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>96</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1126,7 +1143,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1164,7 +1181,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1210,7 +1227,9 @@
       <c r="C21" s="3">
         <v>42743</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>42803</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{BC31E240-7BF4-46C2-8ADD-46D018C6E7BA}" diskRevisions="1" revisionId="31" version="20">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F3F5D78E-38FD-4D12-BE39-8D27DB2139C7}" diskRevisions="1" revisionId="32" version="21">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -307,6 +307,11 @@
     </sheetIdMap>
   </header>
   <header guid="{BC31E240-7BF4-46C2-8ADD-46D018C6E7BA}" dateTime="2017-03-09T11:01:13" maxSheetId="2" userName="Piotrek K" r:id="rId20" minRId="31">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{F3F5D78E-38FD-4D12-BE39-8D27DB2139C7}" dateTime="2017-03-09T13:24:52" maxSheetId="2" userName="Piotrek K" r:id="rId21" minRId="32">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -477,6 +482,16 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog21.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="32" sId="1" numFmtId="19">
+    <nc r="D22">
+      <v>42803</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" numFmtId="19">
@@ -592,9 +607,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{BC31E240-7BF4-46C2-8ADD-46D018C6E7BA}" name="Piotrek K" id="-536930557" dateTime="2017-03-09T10:06:29"/>
+  <userInfo guid="{F3F5D78E-38FD-4D12-BE39-8D27DB2139C7}" name="Piotrek K" id="-536930557" dateTime="2017-03-09T10:06:29"/>
 </users>
 </file>
 
@@ -888,7 +903,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,14 +936,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.53703703703703709</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.40322580645161288</v>
+        <v>0.38709677419354838</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1091,7 +1106,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1143,7 +1158,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1181,7 +1196,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1239,7 +1254,9 @@
       <c r="C22" s="3">
         <v>42744</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>42803</v>
+      </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{F3F5D78E-38FD-4D12-BE39-8D27DB2139C7}" diskRevisions="1" revisionId="32" version="21">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{275E55FD-68FA-417C-A60B-9D38AB70174F}" diskRevisions="1" revisionId="33" version="22">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -312,6 +312,11 @@
     </sheetIdMap>
   </header>
   <header guid="{F3F5D78E-38FD-4D12-BE39-8D27DB2139C7}" dateTime="2017-03-09T13:24:52" maxSheetId="2" userName="Piotrek K" r:id="rId21" minRId="32">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{275E55FD-68FA-417C-A60B-9D38AB70174F}" dateTime="2017-03-09T16:25:54" maxSheetId="2" userName="Piotrek K" r:id="rId22" minRId="33">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -492,6 +497,16 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog22.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="33" sId="1" numFmtId="19">
+    <nc r="D23">
+      <v>42803</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" numFmtId="19">
@@ -607,9 +622,9 @@
 </revisions>
 </file>
 
-<file path=xl/revisions/userNames1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{F3F5D78E-38FD-4D12-BE39-8D27DB2139C7}" name="Piotrek K" id="-536930557" dateTime="2017-03-09T10:06:29"/>
+  <userInfo guid="{275E55FD-68FA-417C-A60B-9D38AB70174F}" name="Piotrek K" id="-536930557" dateTime="2017-03-09T10:06:29"/>
 </users>
 </file>
 
@@ -903,7 +918,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -936,14 +951,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.55555555555555558</v>
+        <v>0.57407407407407407</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.38709677419354838</v>
+        <v>0.37096774193548387</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1158,7 +1173,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1196,7 +1211,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1266,7 +1281,9 @@
       <c r="C23" s="3">
         <v>42745</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>42803</v>
+      </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">

--- a/maturainformatyka.xlsx
+++ b/maturainformatyka.xlsx
@@ -210,7 +210,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{275E55FD-68FA-417C-A60B-9D38AB70174F}" diskRevisions="1" revisionId="33" version="22">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{7442E706-532E-4278-BF20-9C5F93B93729}" diskRevisions="1" revisionId="35" version="24">
   <header guid="{7F0CB6CC-6FF8-414D-A8D4-F20750B94300}" dateTime="2017-02-08T21:04:39" maxSheetId="2" userName="Piotrek K" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
@@ -317,6 +317,16 @@
     </sheetIdMap>
   </header>
   <header guid="{275E55FD-68FA-417C-A60B-9D38AB70174F}" dateTime="2017-03-09T16:25:54" maxSheetId="2" userName="Piotrek K" r:id="rId22" minRId="33">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{C0710AE0-BBD4-44F3-ACE0-666AB4918E6A}" dateTime="2017-03-09T17:37:17" maxSheetId="2" userName="Piotrek K" r:id="rId23" minRId="34">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{7442E706-532E-4278-BF20-9C5F93B93729}" dateTime="2017-03-09T17:38:41" maxSheetId="2" userName="Piotrek K" r:id="rId24" minRId="35">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -507,6 +517,29 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog23.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="34" sId="1" numFmtId="19">
+    <nc r="D24">
+      <v>42803</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog24.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="35" sId="1" numFmtId="19">
+    <oc r="D19">
+      <v>75669</v>
+    </oc>
+    <nc r="D19">
+      <v>42798</v>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="5" sId="1" numFmtId="19">
@@ -623,9 +656,7 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{275E55FD-68FA-417C-A60B-9D38AB70174F}" name="Piotrek K" id="-536930557" dateTime="2017-03-09T10:06:29"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,7 +949,7 @@
   <dimension ref="B1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -951,14 +982,14 @@
       </c>
       <c r="F1" s="6">
         <f>(H16-H15)/H16</f>
-        <v>0.57407407407407407</v>
+        <v>0.59259259259259256</v>
       </c>
       <c r="G1" t="s">
         <v>11</v>
       </c>
       <c r="H1" s="7">
         <f ca="1">H15/H11</f>
-        <v>0.37096774193548387</v>
+        <v>0.35483870967741937</v>
       </c>
       <c r="I1" t="s">
         <v>12</v>
@@ -1121,7 +1152,7 @@
       </c>
       <c r="H12">
         <f ca="1">TRUNC(RAND()*55)+58</f>
-        <v>58</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.25">
@@ -1173,7 +1204,7 @@
       </c>
       <c r="H15">
         <f>COUNTBLANK(D2:D56)</f>
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.25">
@@ -1211,7 +1242,7 @@
       </c>
       <c r="H17">
         <f>H16-H15</f>
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
@@ -1234,7 +1265,7 @@
         <v>42741</v>
       </c>
       <c r="D19" s="3">
-        <v>75669</v>
+        <v>42798</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1293,7 +1324,9 @@
       <c r="C24" s="3">
         <v>42746</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3">
+        <v>42803</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
